--- a/ipl-2020-21-1210595/mumbai indians vs kolkata knight riders 32nd match 1216526/Bowling2.xlsx
+++ b/ipl-2020-21-1210595/mumbai indians vs kolkata knight riders 32nd match 1216526/Bowling2.xlsx
@@ -557,37 +557,37 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v/>
+        <v>Rahul Chahar</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>18</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F6" t="str">
-        <v/>
+        <v>4.50</v>
       </c>
       <c r="G6" t="str">
-        <v/>
+        <v>13</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
